--- a/14-jointplot/14-jointplot-solution.xlsx
+++ b/14-jointplot/14-jointplot-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\14-jointplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0F919-1E3B-470F-9249-917C91E8583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BD143-F50D-4281-86BE-6E8AE0E47ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,53 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
@@ -49,6 +96,17 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>mpg_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>kinds = ['scatter', 'reg', 'kde', 'hex']
+for k in kinds:
+    sns.jointplot(data=mpg_df, x='horsepower', y='displacement', kind=k)
+    plt.suptitle(f"Jointplot of Horsepower vs. Displacement (kind='{k}')", y=1.02)</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
@@ -88,17 +146,17 @@
     <t>europe</t>
   </si>
   <si>
-    <t>Do that thing where you show each hex kind</t>
+    <t>https://x.com/i/grok/share/nUeZQIOj8gwIuvVL5HHBs2kGr</t>
   </si>
   <si>
-    <t xml:space="preserve">It's in your LiL Course, somewhere…. </t>
+    <t xml:space="preserve">https://x.com/i/grok/share/y80RUr9UC2TW0yLCdQsm35lCN </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -229,6 +287,14 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -531,7 +597,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -574,11 +640,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -612,6 +680,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -633,6 +702,316 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6258A08-988A-623D-6A9D-5C1E9E3FDCC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J3"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9682162" y="585788"/>
+          <a:ext cx="5657850" cy="23469600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="9">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">origin</v>
+    <v>0</v>
+    <v>18</v>
+    <v>8</v>
+    <v>307</v>
+    <v>130</v>
+    <v>3504</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>1</v>
+    <v>15</v>
+    <v>8</v>
+    <v>350</v>
+    <v>165</v>
+    <v>3693</v>
+    <v>11.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>2</v>
+    <v>18</v>
+    <v>8</v>
+    <v>318</v>
+    <v>150</v>
+    <v>3436</v>
+    <v>11</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>3</v>
+    <v>16</v>
+    <v>8</v>
+    <v>304</v>
+    <v>150</v>
+    <v>3433</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>4</v>
+    <v>17</v>
+    <v>8</v>
+    <v>302</v>
+    <v>140</v>
+    <v>3449</v>
+    <v>10.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>393</v>
+    <v>27</v>
+    <v>4</v>
+    <v>140</v>
+    <v>86</v>
+    <v>2790</v>
+    <v>15.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>394</v>
+    <v>44</v>
+    <v>4</v>
+    <v>97</v>
+    <v>52</v>
+    <v>2130</v>
+    <v>24.6</v>
+    <v>82</v>
+    <v t="s">europe</v>
+    <v>395</v>
+    <v>32</v>
+    <v>4</v>
+    <v>135</v>
+    <v>84</v>
+    <v>2295</v>
+    <v>11.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>396</v>
+    <v>28</v>
+    <v>4</v>
+    <v>120</v>
+    <v>79</v>
+    <v>2625</v>
+    <v>18.600000000000001</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>397</v>
+    <v>31</v>
+    <v>4</v>
+    <v>119</v>
+    <v>82</v>
+    <v>2720</v>
+    <v>19.399999999999999</v>
+    <v>82</v>
+    <v t="s">usa</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
+0    18.0          8         307.0       130.0    3504          12.0   
+1    15.0          8         350.0       165.0    3693          11.5   
+2    18.0          8         318.0  ...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="3">
+    <spb s="0">
+      <v>398</v>
+      <v>8</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J399"/>
+  <dimension ref="A1:Q399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -984,7 +1363,7 @@
     <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,11 +1388,15 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="e" cm="1" vm="1">
+        <f t="array" ref="J1">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1038,11 +1421,8 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1067,8 +1447,15 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J3" t="e" cm="1" vm="2">
+        <f t="array" ref="J3">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1094,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1120,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1146,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1172,7 +1559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1198,7 +1585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1224,7 +1611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1250,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1276,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1302,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1328,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1354,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1380,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A16">
         <v>24</v>
       </c>
@@ -11347,9 +11734,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{CD1416D5-D24D-4416-BD89-699CCAB6F3FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/14-jointplot/14-jointplot-solution.xlsx
+++ b/14-jointplot/14-jointplot-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\14-jointplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BD143-F50D-4281-86BE-6E8AE0E47ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AAAF4E-FCD9-4D98-9D29-FA8EA2BD90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,16 +708,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -732,7 +732,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J3"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J12"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -745,7 +745,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9682162" y="585788"/>
+          <a:off x="10806112" y="2833689"/>
           <a:ext cx="5657850" cy="23469600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -1447,10 +1447,6 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="e" cm="1" vm="2">
-        <f t="array" ref="J3">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="Q3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1687,6 +1683,10 @@
       </c>
       <c r="H12" t="s">
         <v>8</v>
+      </c>
+      <c r="J12" t="e" cm="1" vm="2">
+        <f t="array" ref="J12">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.65">

--- a/14-jointplot/14-jointplot-solution.xlsx
+++ b/14-jointplot/14-jointplot-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\14-jointplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AAAF4E-FCD9-4D98-9D29-FA8EA2BD90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04DEB9-7FF3-4DDB-8A43-C1509D2F0530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -62,18 +62,38 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="4">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -101,6 +121,12 @@
       <code>mpg_df = xl(%P2%, headers=True)</code>
     </pythonScript>
     <pythonScript>
+      <code>sns.jointplot(data=mpg_df, x='horsepower', y='mpg')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.jointplot(data=mpg_df, x='horsepower', y='mpg', hue='origin')</code>
+    </pythonScript>
+    <pythonScript>
       <code>kinds = ['scatter', 'reg', 'kde', 'hex']
 for k in kinds:
     sns.jointplot(data=mpg_df, x='horsepower', y='displacement', kind=k)
@@ -111,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
   <si>
     <t>mpg</t>
   </si>
@@ -144,12 +170,6 @@
   </si>
   <si>
     <t>europe</t>
-  </si>
-  <si>
-    <t>https://x.com/i/grok/share/nUeZQIOj8gwIuvVL5HHBs2kGr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://x.com/i/grok/share/y80RUr9UC2TW0yLCdQsm35lCN </t>
   </si>
 </sst>
 </file>
@@ -709,22 +729,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166689</xdr:rowOff>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>166689</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>229127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6258A08-988A-623D-6A9D-5C1E9E3FDCC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058484F3-9C78-5191-D3E8-89646861F127}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -732,7 +752,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J12"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J4"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -745,7 +765,105 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10806112" y="2833689"/>
+          <a:off x="10539413" y="766762"/>
+          <a:ext cx="3962400" cy="3996265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>881063</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>760346</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD573DD-8607-A6BA-12EE-BFF1D3F39400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J20"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10463213" y="5095875"/>
+          <a:ext cx="3536883" cy="3567113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159822E6-0996-E8F5-B9B4-3C1918EEB7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J37"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10596562" y="9601199"/>
           <a:ext cx="5657850" cy="23469600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -914,7 +1032,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -935,6 +1053,16 @@
   </rv>
   <rv s="3">
     <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -1011,6 +1139,8 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
 </richValueRels>
 </file>
 
@@ -1350,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -1392,9 +1522,6 @@
         <f t="array" ref="J1">_xlfn._xlws.PY(0,1,mpg[#All])</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A2">
@@ -1447,9 +1574,7 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A4">
@@ -1476,6 +1601,10 @@
       <c r="H4" t="s">
         <v>8</v>
       </c>
+      <c r="J4" t="e" cm="1" vm="2">
+        <f t="array" ref="J4">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A5">
@@ -1684,10 +1813,6 @@
       <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="J12" t="e" cm="1" vm="2">
-        <f t="array" ref="J12">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A13">
@@ -1793,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1819,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1845,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1871,7 +1996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1896,8 +2021,12 @@
       <c r="H20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J20" t="e" cm="1" vm="3">
+        <f t="array" ref="J20">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1923,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1949,7 +2078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1975,7 +2104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2001,7 +2130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2027,7 +2156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2053,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2079,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2105,7 +2234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2131,7 +2260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2157,7 +2286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2183,7 +2312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2209,7 +2338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2235,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2258,7 +2387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2284,7 +2413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2310,7 +2439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2335,8 +2464,12 @@
       <c r="H37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J37" t="e" cm="1" vm="4">
+        <f t="array" ref="J37">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2362,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2388,7 +2521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2414,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2440,7 +2573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2466,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2492,7 +2625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2518,7 +2651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2544,7 +2677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2570,7 +2703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2596,7 +2729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A48">
         <v>22</v>
       </c>
@@ -11734,13 +11867,10 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" xr:uid="{CD1416D5-D24D-4416-BD89-699CCAB6F3FE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/14-jointplot/14-jointplot-solution.xlsx
+++ b/14-jointplot/14-jointplot-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\14-jointplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04DEB9-7FF3-4DDB-8A43-C1509D2F0530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1624B816-DD0C-46F2-AE12-DE8B7A512D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="4">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -76,13 +76,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="4">
+  <valueMetadata count="5">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -94,6 +101,9 @@
     </bk>
     <bk>
       <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -127,10 +137,12 @@
       <code>sns.jointplot(data=mpg_df, x='horsepower', y='mpg', hue='origin')</code>
     </pythonScript>
     <pythonScript>
-      <code>kinds = ['scatter', 'reg', 'kde', 'hex']
+      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='acceleration')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>kinds = ['scatter', 'reg' ,'kde', 'hex']
 for k in kinds:
-    sns.jointplot(data=mpg_df, x='horsepower', y='displacement', kind=k)
-    plt.suptitle(f"Jointplot of Horsepower vs. Displacement (kind='{k}')", y=1.02)</code>
+  sns.jointplot(data=mpg_df, x='horsepower', y='displacement', kind=k)</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -176,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -307,14 +319,6 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,7 +621,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -660,13 +664,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -700,7 +702,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -729,22 +730,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>235526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>229127</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>225840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>220644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058484F3-9C78-5191-D3E8-89646861F127}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AE93BB-B6B7-7B17-6B8A-1544C9F5B69D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -752,7 +753,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J4"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -765,8 +766,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10539413" y="766762"/>
-          <a:ext cx="3962400" cy="3996265"/>
+          <a:off x="10432473" y="505690"/>
+          <a:ext cx="5365876" cy="5388390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,23 +778,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>881063</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>760346</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236924</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>116389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD573DD-8607-A6BA-12EE-BFF1D3F39400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E70E2B-B492-1B46-67B0-421D65E395C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,7 +802,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J20"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J25"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -814,8 +815,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10463213" y="5095875"/>
-          <a:ext cx="3536883" cy="3567113"/>
+          <a:off x="10460182" y="6608618"/>
+          <a:ext cx="5349251" cy="5394971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -826,23 +827,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>755072</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
+      <xdr:colOff>206086</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159822E6-0996-E8F5-B9B4-3C1918EEB7A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E232C6-76F5-C707-6FD2-575E40D57792}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -850,7 +851,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J37"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J48"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -863,8 +864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10596562" y="9601199"/>
-          <a:ext cx="5657850" cy="23469600"/>
+          <a:off x="10120745" y="12669982"/>
+          <a:ext cx="5657850" cy="22479000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1032,7 +1033,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1063,6 +1064,11 @@
   </rv>
   <rv s="3">
     <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="3">
+    <v>3</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -1141,6 +1147,7 @@
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
 </richValueRels>
 </file>
 
@@ -1478,22 +1485,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q399"/>
+  <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="9.04296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.76953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.03515625" customWidth="1"/>
+    <col min="3" max="3" width="12.73828125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1530,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1574,9 +1581,12 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="J3" t="e" cm="1" vm="2">
+        <f t="array" ref="J3">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1601,12 +1611,8 @@
       <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="e" cm="1" vm="2">
-        <f t="array" ref="J4">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.65">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>27</v>
       </c>
@@ -2021,12 +2027,8 @@
       <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="J20" t="e" cm="1" vm="3">
-        <f t="array" ref="J20">_xlfn._xlws.PY(2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2155,8 +2157,12 @@
       <c r="H25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J25" t="e" cm="1" vm="3">
+        <f t="array" ref="J25">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2464,12 +2470,8 @@
       <c r="H37" t="s">
         <v>8</v>
       </c>
-      <c r="J37" t="e" cm="1" vm="4">
-        <f t="array" ref="J37">_xlfn._xlws.PY(3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2650,8 +2652,12 @@
       <c r="H44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J44" t="e" cm="1" vm="4">
+        <f t="array" ref="J44">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2754,8 +2760,12 @@
       <c r="H48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J48" t="e" cm="1" vm="5">
+        <f t="array" ref="J48">_xlfn._xlws.PY(4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2859,7 +2869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>30</v>
       </c>
@@ -2885,7 +2895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2911,7 +2921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>31</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>35</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>27</v>
       </c>
@@ -2989,7 +2999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>25</v>
       </c>
@@ -3067,7 +3077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3119,7 +3129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3197,7 +3207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3223,7 +3233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3249,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3275,7 +3285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3379,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3405,7 +3415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3457,7 +3467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>13</v>
       </c>
@@ -3483,7 +3493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3535,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3561,7 +3571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3587,7 +3597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3613,7 +3623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3639,7 +3649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3691,7 +3701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3717,7 +3727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3743,7 +3753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3769,7 +3779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3821,7 +3831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3847,7 +3857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>15</v>
       </c>
@@ -3873,7 +3883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>12</v>
       </c>
@@ -3899,7 +3909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>13</v>
       </c>
@@ -3925,7 +3935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3951,7 +3961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3977,7 +3987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>13</v>
       </c>
@@ -4003,7 +4013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>12</v>
       </c>
@@ -4029,7 +4039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4055,7 +4065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4081,7 +4091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>16</v>
       </c>
@@ -4107,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4133,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4159,7 +4169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4185,7 +4195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4211,7 +4221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4237,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4263,7 +4273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4289,7 +4299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4315,7 +4325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4341,7 +4351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4367,7 +4377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>21</v>
       </c>
@@ -4393,7 +4403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>22</v>
       </c>
@@ -4419,7 +4429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>18</v>
       </c>
@@ -4445,7 +4455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>19</v>
       </c>
@@ -4471,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>26</v>
       </c>
@@ -4523,7 +4533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>15</v>
       </c>
@@ -4549,7 +4559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4575,7 +4585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4601,7 +4611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4627,7 +4637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4653,7 +4663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4679,7 +4689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4705,7 +4715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4731,7 +4741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4757,7 +4767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>11</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4809,7 +4819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>21</v>
       </c>
@@ -4832,7 +4842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>19</v>
       </c>
@@ -4858,7 +4868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>15</v>
       </c>
@@ -4884,7 +4894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>31</v>
       </c>
@@ -4910,7 +4920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>26</v>
       </c>
@@ -4936,7 +4946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>32</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>25</v>
       </c>
@@ -4988,7 +4998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>16</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>16</v>
       </c>
@@ -5040,7 +5050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>18</v>
       </c>
@@ -5066,7 +5076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5092,7 +5102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>13</v>
       </c>
@@ -5118,7 +5128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5144,7 +5154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5170,7 +5180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5196,7 +5206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5222,7 +5232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5248,7 +5258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>26</v>
       </c>
@@ -5274,7 +5284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>32</v>
       </c>
@@ -5326,7 +5336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>28</v>
       </c>
@@ -5352,7 +5362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>24</v>
       </c>
@@ -5378,7 +5388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>26</v>
       </c>
@@ -5404,7 +5414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>24</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>26</v>
       </c>
@@ -5456,7 +5466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>31</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>19</v>
       </c>
@@ -5508,7 +5518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5534,7 +5544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>15</v>
       </c>
@@ -5560,7 +5570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5586,7 +5596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5612,7 +5622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5638,7 +5648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5664,7 +5674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5690,7 +5700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5716,7 +5726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>16</v>
       </c>
@@ -5742,7 +5752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>15</v>
       </c>
@@ -5768,7 +5778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>18</v>
       </c>
@@ -5794,7 +5804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>21</v>
       </c>
@@ -5820,7 +5830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>20</v>
       </c>
@@ -5846,7 +5856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>13</v>
       </c>
@@ -5872,7 +5882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>29</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>23</v>
       </c>
@@ -5924,7 +5934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>20</v>
       </c>
@@ -5950,7 +5960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>23</v>
       </c>
@@ -5976,7 +5986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>24</v>
       </c>
@@ -6002,7 +6012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>25</v>
       </c>
@@ -6028,7 +6038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>24</v>
       </c>
@@ -6054,7 +6064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>29</v>
       </c>
@@ -6106,7 +6116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>19</v>
       </c>
@@ -6132,7 +6142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6158,7 +6168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>23</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>22</v>
       </c>
@@ -6210,7 +6220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>25</v>
       </c>
@@ -6236,7 +6246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>33</v>
       </c>
@@ -6262,7 +6272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>28</v>
       </c>
@@ -6288,7 +6298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>25</v>
       </c>
@@ -6314,7 +6324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6340,7 +6350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>26</v>
       </c>
@@ -6366,7 +6376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>27</v>
       </c>
@@ -6392,7 +6402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -6418,7 +6428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>16</v>
       </c>
@@ -6444,7 +6454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -6470,7 +6480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -6496,7 +6506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>22</v>
       </c>
@@ -6522,7 +6532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>22</v>
       </c>
@@ -6548,7 +6558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6574,7 +6584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>29</v>
       </c>
@@ -6626,7 +6636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -6652,7 +6662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>29</v>
       </c>
@@ -6678,7 +6688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>33</v>
       </c>
@@ -6704,7 +6714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6730,7 +6740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>18</v>
       </c>
@@ -6756,7 +6766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -6782,7 +6792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -6808,7 +6818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -6834,7 +6844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>32</v>
       </c>
@@ -6860,7 +6870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>28</v>
       </c>
@@ -6886,7 +6896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -6912,7 +6922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>20</v>
       </c>
@@ -6938,7 +6948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>13</v>
       </c>
@@ -6964,7 +6974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>19</v>
       </c>
@@ -6990,7 +7000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>19</v>
       </c>
@@ -7016,7 +7026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -7042,7 +7052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -7068,7 +7078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>13</v>
       </c>
@@ -7094,7 +7104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>13</v>
       </c>
@@ -7120,7 +7130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>13</v>
       </c>
@@ -7146,7 +7156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -7172,7 +7182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>30</v>
       </c>
@@ -7198,7 +7208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>36</v>
       </c>
@@ -7224,7 +7234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -7250,7 +7260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -7276,7 +7286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -7302,7 +7312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>17</v>
       </c>
@@ -7328,7 +7338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -7354,7 +7364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>15</v>
       </c>
@@ -7380,7 +7390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -7406,7 +7416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -7432,7 +7442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7458,7 +7468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -7484,7 +7494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>16</v>
       </c>
@@ -7510,7 +7520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -7536,7 +7546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -7562,7 +7572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7588,7 +7598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>29</v>
       </c>
@@ -7614,7 +7624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -7640,7 +7650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>26</v>
       </c>
@@ -7666,7 +7676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -7692,7 +7702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -7718,7 +7728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>30</v>
       </c>
@@ -7770,7 +7780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -7796,7 +7806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7822,7 +7832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -7848,7 +7858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -7874,7 +7884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -7900,7 +7910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -7926,7 +7936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -7952,7 +7962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -7978,7 +7988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -8004,7 +8014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -8030,7 +8040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -8056,7 +8066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -8082,7 +8092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -8108,7 +8118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -8134,7 +8144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -8160,7 +8170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -8186,7 +8196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -8212,7 +8222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -8238,7 +8248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -8264,7 +8274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -8290,7 +8300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -8316,7 +8326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -8342,7 +8352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -8368,7 +8378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -8394,7 +8404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -8420,7 +8430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -8446,7 +8456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>30</v>
       </c>
@@ -8472,7 +8482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -8498,7 +8508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -8524,7 +8534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -8550,7 +8560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -8576,7 +8586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -8602,7 +8612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -8628,7 +8638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -8654,7 +8664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -8680,7 +8690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>17</v>
       </c>
@@ -8706,7 +8716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -8732,7 +8742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -8758,7 +8768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -8784,7 +8794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -8810,7 +8820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -8836,7 +8846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -8862,7 +8872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -8888,7 +8898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -8914,7 +8924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -8940,7 +8950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>17</v>
       </c>
@@ -8966,7 +8976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -8992,7 +9002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -9018,7 +9028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -9044,7 +9054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -9070,7 +9080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -9096,7 +9106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -9122,7 +9132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -9148,7 +9158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -9174,7 +9184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -9200,7 +9210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -9226,7 +9236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -9252,7 +9262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -9278,7 +9288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>23</v>
       </c>
@@ -9304,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -9330,7 +9340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -9356,7 +9366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -9382,7 +9392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -9408,7 +9418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -9434,7 +9444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -9460,7 +9470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -9486,7 +9496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -9512,7 +9522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -9538,7 +9548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -9564,7 +9574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -9590,7 +9600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -9616,7 +9626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -9642,7 +9652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -9668,7 +9678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>28</v>
       </c>
@@ -9694,7 +9704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -9720,7 +9730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -9746,7 +9756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -9772,7 +9782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -9798,7 +9808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -9824,7 +9834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -9850,7 +9860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>37</v>
       </c>
@@ -9876,7 +9886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -9902,7 +9912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -9928,7 +9938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -9954,7 +9964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -9980,7 +9990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -10006,7 +10016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -10032,7 +10042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -10058,7 +10068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>30</v>
       </c>
@@ -10084,7 +10094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -10110,7 +10120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -10133,7 +10143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -10159,7 +10169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -10185,7 +10195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -10211,7 +10221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -10237,7 +10247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>35</v>
       </c>
@@ -10263,7 +10273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -10286,7 +10296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -10312,7 +10322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -10338,7 +10348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -10364,7 +10374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -10390,7 +10400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -10416,7 +10426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>30</v>
       </c>
@@ -10442,7 +10452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -10468,7 +10478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>39</v>
       </c>
@@ -10494,7 +10504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -10520,7 +10530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -10546,7 +10556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>37</v>
       </c>
@@ -10572,7 +10582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -10598,7 +10608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -10624,7 +10634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -10650,7 +10660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -10676,7 +10686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -10702,7 +10712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>33</v>
       </c>
@@ -10728,7 +10738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -10751,7 +10761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -10777,7 +10787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -10803,7 +10813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -10829,7 +10839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -10855,7 +10865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -10907,7 +10917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -10933,7 +10943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -10959,7 +10969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -10985,7 +10995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -11011,7 +11021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -11037,7 +11047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -11063,7 +11073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>28</v>
       </c>
@@ -11089,7 +11099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>27</v>
       </c>
@@ -11115,7 +11125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>34</v>
       </c>
@@ -11141,7 +11151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>31</v>
       </c>
@@ -11167,7 +11177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>29</v>
       </c>
@@ -11193,7 +11203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>27</v>
       </c>
@@ -11219,7 +11229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>24</v>
       </c>
@@ -11245,7 +11255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>23</v>
       </c>
@@ -11268,7 +11278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>36</v>
       </c>
@@ -11294,7 +11304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>37</v>
       </c>
@@ -11320,7 +11330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>31</v>
       </c>
@@ -11346,7 +11356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>38</v>
       </c>
@@ -11372,7 +11382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>36</v>
       </c>
@@ -11398,7 +11408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>36</v>
       </c>
@@ -11424,7 +11434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>36</v>
       </c>
@@ -11450,7 +11460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>34</v>
       </c>
@@ -11476,7 +11486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>38</v>
       </c>
@@ -11502,7 +11512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>32</v>
       </c>
@@ -11528,7 +11538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>38</v>
       </c>
@@ -11554,7 +11564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>25</v>
       </c>
@@ -11580,7 +11590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>38</v>
       </c>
@@ -11606,7 +11616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>26</v>
       </c>
@@ -11632,7 +11642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>22</v>
       </c>
@@ -11658,7 +11668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>32</v>
       </c>
@@ -11684,7 +11694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>36</v>
       </c>
@@ -11710,7 +11720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>27</v>
       </c>
@@ -11736,7 +11746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>27</v>
       </c>
@@ -11762,7 +11772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>44</v>
       </c>
@@ -11788,7 +11798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>32</v>
       </c>
@@ -11814,7 +11824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>28</v>
       </c>
@@ -11840,7 +11850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>31</v>
       </c>

--- a/14-jointplot/14-jointplot-solution.xlsx
+++ b/14-jointplot/14-jointplot-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\14-jointplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1624B816-DD0C-46F2-AE12-DE8B7A512D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F77198E-3D9B-4D29-8AE9-27F3F3BE7B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="14-jointplot" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -753,7 +753,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J3"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'14-jointplot'!J3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -802,7 +802,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J25"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'14-jointplot'!J25"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -851,7 +851,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J48"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'14-jointplot'!J48"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
